--- a/Lab 6/data/Exp4.xlsx
+++ b/Lab 6/data/Exp4.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF8C7ED-CB51-47B5-9AF1-06E1FD0CED54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3240" windowWidth="28800" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="3240" windowWidth="28800" windowHeight="10728"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +33,13 @@
     <t>Exp4 Run5</t>
   </si>
   <si>
-    <t>Exp3 Run3</t>
+    <t>Exp4 Run3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,16 +350,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -424,7 +426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -456,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -488,7 +490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -520,7 +522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -552,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -584,7 +586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -616,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16</v>
       </c>
@@ -648,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>18</v>
       </c>
@@ -680,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
@@ -712,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -744,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24</v>
       </c>
@@ -776,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>26</v>
       </c>
@@ -808,7 +810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28</v>
       </c>
@@ -840,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>30</v>
       </c>
@@ -872,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>32</v>
       </c>
@@ -904,7 +906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>34</v>
       </c>
@@ -936,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>36</v>
       </c>
@@ -968,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>40</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>42</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>44</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>46</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>48</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>52</v>
       </c>
@@ -1224,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>54</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>56</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>58</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>60</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>62</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>64</v>
       </c>
@@ -1416,7 +1418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>66</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>68</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>70</v>
       </c>
@@ -1512,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>72</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>74</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>76</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>78</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>80</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>82</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>84</v>
       </c>
@@ -1736,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>86</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>88</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>90</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>92</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>94</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>96</v>
       </c>
@@ -1928,7 +1930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>98</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>100</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>102</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>104</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>106</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>108</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>110</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>112</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>114</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>116</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>118</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>120</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>122</v>
       </c>
@@ -2344,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>124</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>126</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>128</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>130</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>132</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>134</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>136</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>138</v>
       </c>
@@ -2600,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>140</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>142</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>144</v>
       </c>
@@ -2696,7 +2698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>146</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>148</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>150</v>
       </c>
@@ -2792,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>152</v>
       </c>
@@ -2824,7 +2826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>154</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>156</v>
       </c>
@@ -2888,7 +2890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>158</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>160</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>162</v>
       </c>
@@ -2984,7 +2986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>164</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>166</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>168</v>
       </c>
@@ -3080,7 +3082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>170</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>172</v>
       </c>
@@ -3144,7 +3146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>174</v>
       </c>
@@ -3176,7 +3178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>176</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>178</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>180</v>
       </c>
@@ -3272,7 +3274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>182</v>
       </c>
@@ -3304,7 +3306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>184</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>186</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>188</v>
       </c>
@@ -3400,7 +3402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>190</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>192</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>194</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>196</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>198</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>200</v>
       </c>
@@ -3592,7 +3594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>202</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>204</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>206</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>208</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>210</v>
       </c>
@@ -3752,7 +3754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>212</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>214</v>
       </c>
@@ -3816,7 +3818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>216</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>218</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>220</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>222</v>
       </c>
@@ -3944,7 +3946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>224</v>
       </c>
@@ -3976,7 +3978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>226</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>228</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>230</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>232</v>
       </c>
@@ -4104,7 +4106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>234</v>
       </c>
@@ -4136,7 +4138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>236</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>238</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>240</v>
       </c>
@@ -4232,7 +4234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>242</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>244</v>
       </c>
@@ -4296,7 +4298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>246</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>248</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>250</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>252</v>
       </c>
@@ -4424,7 +4426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>254</v>
       </c>
@@ -4456,7 +4458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>256</v>
       </c>
@@ -4488,7 +4490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>258</v>
       </c>
@@ -4520,7 +4522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>260</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>262</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>264</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>266</v>
       </c>
@@ -4648,7 +4650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>268</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>270</v>
       </c>
@@ -4712,7 +4714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>272</v>
       </c>
@@ -4744,7 +4746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>274</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>276</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>278</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>280</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>282</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>284</v>
       </c>
@@ -4936,7 +4938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>286</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>288</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>290</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>292</v>
       </c>
@@ -5064,7 +5066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>294</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>296</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>298</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>300</v>
       </c>
